--- a/CORRECCIONES (3).xlsx
+++ b/CORRECCIONES (3).xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\erp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E386D24-D554-4C3B-B4FE-CB25D4B3C0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -13,10 +19,19 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Metodo Promedio'!$I$17:$I$33</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -250,7 +265,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -943,7 +958,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A1F43736-53EF-4D94-ACC7-89B5129BFB9E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1F43736-53EF-4D94-ACC7-89B5129BFB9E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -986,7 +1001,7 @@
         <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3599B580-7F17-4FBA-BF31-CDDA66E66554}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3599B580-7F17-4FBA-BF31-CDDA66E66554}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1029,7 +1044,7 @@
         <xdr:cNvPr id="5" name="Imagen 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CA250C9F-F809-4B41-AF83-B926AAD66B44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA250C9F-F809-4B41-AF83-B926AAD66B44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1072,7 +1087,7 @@
         <xdr:cNvPr id="6" name="Imagen 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF9A66DF-2675-495C-B16A-20DE9F17A368}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF9A66DF-2675-495C-B16A-20DE9F17A368}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1115,7 +1130,7 @@
         <xdr:cNvPr id="8" name="CuadroTexto 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E80007B-58DE-47B7-9057-58F8876E4235}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E80007B-58DE-47B7-9057-58F8876E4235}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1190,7 +1205,7 @@
         <xdr:cNvPr id="9" name="CuadroTexto 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACAD4661-B37B-4F4D-803F-BCA81334789C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACAD4661-B37B-4F4D-803F-BCA81334789C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1265,7 +1280,7 @@
         <xdr:cNvPr id="10" name="CuadroTexto 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{20D22EAD-B4F9-4BDD-811A-2B30F1D322F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20D22EAD-B4F9-4BDD-811A-2B30F1D322F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1340,7 +1355,7 @@
         <xdr:cNvPr id="11" name="CuadroTexto 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5EDB9D7D-5865-467F-A7AB-126B76FF6988}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EDB9D7D-5865-467F-A7AB-126B76FF6988}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1410,7 +1425,7 @@
         <xdr:cNvPr id="12" name="CuadroTexto 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{96CEC9DC-BB41-4557-A3D6-DB6510A5FA38}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96CEC9DC-BB41-4557-A3D6-DB6510A5FA38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1480,7 +1495,7 @@
         <xdr:cNvPr id="14" name="CuadroTexto 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7C24BBCD-8EF7-43DF-A51F-288F2A350D1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C24BBCD-8EF7-43DF-A51F-288F2A350D1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1550,7 +1565,7 @@
         <xdr:cNvPr id="15" name="Imagen 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9EF9C614-8B9C-4E03-9B41-A7D5E19E9937}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EF9C614-8B9C-4E03-9B41-A7D5E19E9937}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1593,7 +1608,7 @@
         <xdr:cNvPr id="16" name="Imagen 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8E2C7364-EF41-4AD7-A88E-A9DF81E8C010}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E2C7364-EF41-4AD7-A88E-A9DF81E8C010}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1636,7 +1651,7 @@
         <xdr:cNvPr id="18" name="Imagen 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A3DD56D6-DFE5-4809-A729-089F5B635584}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3DD56D6-DFE5-4809-A729-089F5B635584}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1680,7 +1695,7 @@
         <xdr:cNvPr id="19" name="Imagen 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7405106B-985B-427E-ADAB-7805FB55D16C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7405106B-985B-427E-ADAB-7805FB55D16C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1998,14 +2013,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B27:R210"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -2332,11 +2347,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2587,14 +2602,14 @@
       <c r="J16" s="30"/>
       <c r="K16" s="29"/>
       <c r="L16" s="28">
+        <v>5</v>
+      </c>
+      <c r="M16" s="27">
         <v>10</v>
-      </c>
-      <c r="M16" s="27">
-        <v>2.2999999999999998</v>
       </c>
       <c r="N16" s="27">
         <f>L16*M16</f>
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="P16">
         <v>10</v>
@@ -2619,36 +2634,34 @@
       <c r="E17" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="18">
-        <v>30</v>
-      </c>
-      <c r="G17" s="16">
-        <v>3</v>
-      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="16"/>
       <c r="H17" s="16">
         <f>+F17*G17</f>
-        <v>90</v>
-      </c>
-      <c r="I17" s="18"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="18">
+        <v>4</v>
+      </c>
       <c r="J17" s="16">
         <f t="shared" ref="J17:J33" si="0">IF(I17&lt;&gt;"",M16,0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K17" s="16">
         <f t="shared" ref="K17:K33" si="1">+I17*J17</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L17" s="17">
         <f>IF(AND(F17=0,I17=0),0,IF(F17&lt;&gt;0,L16+F17,L16-I17))</f>
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="M17" s="16">
         <f>IF(AND(F17=0,I17=0),0,IF(F17&lt;&gt;"",(N16+H17)/L17,M16))</f>
-        <v>2.8250000000000002</v>
+        <v>10</v>
       </c>
       <c r="N17" s="16">
         <f>+L17*M17</f>
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="O17" s="41"/>
       <c r="P17" s="40">
@@ -2674,11 +2687,15 @@
       <c r="E18" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="16"/>
+      <c r="F18" s="18">
+        <v>4</v>
+      </c>
+      <c r="G18" s="16">
+        <v>5</v>
+      </c>
       <c r="H18" s="16">
         <f>+F18*G18</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I18" s="18"/>
       <c r="J18" s="16">
@@ -2691,15 +2708,15 @@
       </c>
       <c r="L18" s="17">
         <f>IF(AND(F18=0,I18=0),0,IF(F18&lt;&gt;0,L17+F18,L17-I18))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M18" s="16">
         <f>IF(AND(F18=0,I18=0),0,IF(F18&lt;&gt;"",(N17+H18)/L18,M17))</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N18" s="16">
         <f>+L18*M18</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O18" s="41"/>
       <c r="P18">
@@ -3395,25 +3412,25 @@
       </c>
       <c r="F35" s="11">
         <f>SUM(F16:F33)+L16</f>
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" s="9">
         <f>SUM(H16:H33)</f>
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="I35" s="13">
         <f>SUM(I16:I33)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J35" s="10"/>
       <c r="K35" s="12">
         <f>SUM(K17:K33)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L35" s="11">
         <f>+F35-I35</f>
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="M35" s="10"/>
       <c r="N35" s="9">
@@ -3429,7 +3446,7 @@
       <c r="C36" s="68"/>
       <c r="D36" s="8">
         <f>+N16</f>
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="N36" s="5"/>
     </row>
@@ -3441,7 +3458,7 @@
       <c r="C37" s="68"/>
       <c r="D37" s="8">
         <f>+H35</f>
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1">
@@ -3463,7 +3480,7 @@
       <c r="C39" s="68"/>
       <c r="D39" s="7">
         <f>+SUM(D36:D38)</f>
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="F39" s="60" t="s">
         <v>22</v>
@@ -3474,7 +3491,7 @@
       <c r="J39" s="62"/>
       <c r="K39" s="6">
         <f>+K35-D39</f>
-        <v>-113</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="40" spans="1:14">
